--- a/data/trans_orig/P14B23_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B23_2015-Provincia-trans_orig.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>82,51%</t>
+          <t>81,54%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>83,12%</t>
+          <t>85,5%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -809,7 +809,7 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>14,5%</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>73,6%</t>
+          <t>78,49%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>71,0%</t>
+          <t>72,78%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>80,07%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>29,0%</t>
+          <t>27,22%</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>34,7%</t>
+          <t>33,57%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>73,3%</t>
+          <t>75,9%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>75,76%</t>
+          <t>72,7%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>65,3%</t>
+          <t>66,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>27,3%</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>63,95%</t>
+          <t>61,86%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>75,03%</t>
+          <t>74,35%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>38,14%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>25,65%</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>82,96%</t>
+          <t>83,03%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>77,34%</t>
+          <t>78,35%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>21,65%</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>47,4%</t>
+          <t>47,63%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2014,12 +2014,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>47,02%</t>
+          <t>45,06%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>75,18%</t>
+          <t>75,16%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>51,22%</t>
+          <t>51,99%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>78,84%</t>
+          <t>77,67%</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>52,6%</t>
+          <t>52,37%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2085,12 +2085,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>52,98%</t>
+          <t>54,94%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>48,01%</t>
         </is>
       </c>
     </row>
@@ -2210,12 +2210,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>56,26%</t>
+          <t>56,85%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>64,04%</t>
+          <t>64,21%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>85,77%</t>
+          <t>86,79%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2252,12 +2252,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>67,37%</t>
+          <t>67,18%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>87,0%</t>
+          <t>86,5%</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>43,15%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2302,12 +2302,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2323,12 +2323,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>32,82%</t>
         </is>
       </c>
     </row>
@@ -2427,12 +2427,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>79,82%</t>
+          <t>80,49%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>79,66%</t>
+          <t>79,79%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>88,9%</t>
+          <t>89,04%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2469,12 +2469,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>81,46%</t>
+          <t>81,74%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>89,26%</t>
+          <t>89,49%</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2519,12 +2519,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2540,12 +2540,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>18,26%</t>
         </is>
       </c>
     </row>
